--- a/excels/vehicles.xlsx
+++ b/excels/vehicles.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Base de Datos II\streamlit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Base de Datos II\2 Corte\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
-  <si>
-    <t>vehicle_id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>reference</t>
   </si>
@@ -440,23 +437,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.1796875" customWidth="1"/>
-    <col min="2" max="2" width="11.453125" customWidth="1"/>
-    <col min="3" max="3" width="10.453125" customWidth="1"/>
-    <col min="4" max="4" width="15.6328125" customWidth="1"/>
-    <col min="5" max="5" width="10.6328125" customWidth="1"/>
-    <col min="6" max="6" width="15.81640625" customWidth="1"/>
+    <col min="1" max="1" width="11.453125" customWidth="1"/>
+    <col min="2" max="2" width="10.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.6328125" customWidth="1"/>
+    <col min="4" max="4" width="10.6328125" customWidth="1"/>
+    <col min="5" max="5" width="15.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -472,127 +468,106 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2">
+      <c r="B3" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2021</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="2">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C5" s="2">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="2">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2">
         <v>2020</v>
       </c>
-      <c r="D2" s="2">
-        <v>1.8</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="C6" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="2">
+        <v>27000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="2">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2">
-        <v>2019</v>
-      </c>
-      <c r="D3" s="2">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="2">
-        <v>22000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2">
-        <v>2021</v>
-      </c>
-      <c r="D4" s="2">
-        <v>3.5</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="2">
-        <v>35000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="2">
-        <v>2018</v>
-      </c>
-      <c r="D5" s="2">
-        <v>5</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="2">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="2">
-        <v>2020</v>
-      </c>
-      <c r="D6" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="2">
-        <v>27000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="2">
-        <v>2017</v>
-      </c>
-      <c r="D7" s="2">
-        <v>2.4</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="2">
+      <c r="E7" s="2">
         <v>23000</v>
       </c>
     </row>
